--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Clcf1-Il6st.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Clcf1-Il6st.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -85,6 +88,9 @@
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Il6st</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>5.21643730443385</v>
+        <v>1.431948666666667</v>
       </c>
       <c r="H2">
-        <v>5.21643730443385</v>
+        <v>4.295846</v>
       </c>
       <c r="I2">
-        <v>0.3624850241194499</v>
+        <v>0.07759125567219005</v>
       </c>
       <c r="J2">
-        <v>0.3624850241194499</v>
+        <v>0.07759125567219005</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>26.1737723042941</v>
+        <v>50.45577166666666</v>
       </c>
       <c r="N2">
-        <v>26.1737723042941</v>
+        <v>151.367315</v>
       </c>
       <c r="O2">
-        <v>0.1113266536609365</v>
+        <v>0.18996722124408</v>
       </c>
       <c r="P2">
-        <v>0.1113266536609365</v>
+        <v>0.1899672212440799</v>
       </c>
       <c r="Q2">
-        <v>136.5338422458773</v>
+        <v>72.2500749637211</v>
       </c>
       <c r="R2">
-        <v>136.5338422458773</v>
+        <v>650.2506746734899</v>
       </c>
       <c r="S2">
-        <v>0.0403542447374222</v>
+        <v>0.0147397952328849</v>
       </c>
       <c r="T2">
-        <v>0.0403542447374222</v>
+        <v>0.0147397952328849</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>5.21643730443385</v>
+        <v>1.431948666666667</v>
       </c>
       <c r="H3">
-        <v>5.21643730443385</v>
+        <v>4.295846</v>
       </c>
       <c r="I3">
-        <v>0.3624850241194499</v>
+        <v>0.07759125567219005</v>
       </c>
       <c r="J3">
-        <v>0.3624850241194499</v>
+        <v>0.07759125567219005</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>148.258515378317</v>
+        <v>149.2656146666667</v>
       </c>
       <c r="N3">
-        <v>148.258515378317</v>
+        <v>447.796844</v>
       </c>
       <c r="O3">
-        <v>0.6305978443580588</v>
+        <v>0.5619887102876124</v>
       </c>
       <c r="P3">
-        <v>0.6305978443580588</v>
+        <v>0.5619887102876123</v>
       </c>
       <c r="Q3">
-        <v>773.3812503194324</v>
+        <v>213.7406979011138</v>
       </c>
       <c r="R3">
-        <v>773.3812503194324</v>
+        <v>1923.666281110024</v>
       </c>
       <c r="S3">
-        <v>0.2285822748218041</v>
+        <v>0.04360540970481048</v>
       </c>
       <c r="T3">
-        <v>0.2285822748218041</v>
+        <v>0.04360540970481047</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>5.21643730443385</v>
+        <v>1.431948666666667</v>
       </c>
       <c r="H4">
-        <v>5.21643730443385</v>
+        <v>4.295846</v>
       </c>
       <c r="I4">
-        <v>0.3624850241194499</v>
+        <v>0.07759125567219005</v>
       </c>
       <c r="J4">
-        <v>0.3624850241194499</v>
+        <v>0.07759125567219005</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.7503247625346</v>
+        <v>13.28522433333333</v>
       </c>
       <c r="N4">
-        <v>11.7503247625346</v>
+        <v>39.855673</v>
       </c>
       <c r="O4">
-        <v>0.04997844101469479</v>
+        <v>0.05001919635439596</v>
       </c>
       <c r="P4">
-        <v>0.04997844101469479</v>
+        <v>0.05001919635439595</v>
       </c>
       <c r="Q4">
-        <v>61.2948324304983</v>
+        <v>19.02375927048422</v>
       </c>
       <c r="R4">
-        <v>61.2948324304983</v>
+        <v>171.213833434358</v>
       </c>
       <c r="S4">
-        <v>0.01811643639666415</v>
+        <v>0.003881052252851413</v>
       </c>
       <c r="T4">
-        <v>0.01811643639666415</v>
+        <v>0.003881052252851413</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>5.21643730443385</v>
+        <v>1.431948666666667</v>
       </c>
       <c r="H5">
-        <v>5.21643730443385</v>
+        <v>4.295846</v>
       </c>
       <c r="I5">
-        <v>0.3624850241194499</v>
+        <v>0.07759125567219005</v>
       </c>
       <c r="J5">
-        <v>0.3624850241194499</v>
+        <v>0.07759125567219005</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.0931556709254</v>
+        <v>17.42465066666666</v>
       </c>
       <c r="N5">
-        <v>17.0931556709254</v>
+        <v>52.27395199999999</v>
       </c>
       <c r="O5">
-        <v>0.07270346051865775</v>
+        <v>0.06560423830525379</v>
       </c>
       <c r="P5">
-        <v>0.07270346051865775</v>
+        <v>0.06560423830525378</v>
       </c>
       <c r="Q5">
-        <v>89.16537489231025</v>
+        <v>24.95120528926578</v>
       </c>
       <c r="R5">
-        <v>89.16537489231025</v>
+        <v>224.560847603392</v>
       </c>
       <c r="S5">
-        <v>0.02635391563967313</v>
+        <v>0.005090315227522231</v>
       </c>
       <c r="T5">
-        <v>0.02635391563967313</v>
+        <v>0.00509031522752223</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>5.21643730443385</v>
+        <v>1.431948666666667</v>
       </c>
       <c r="H6">
-        <v>5.21643730443385</v>
+        <v>4.295846</v>
       </c>
       <c r="I6">
-        <v>0.3624850241194499</v>
+        <v>0.07759125567219005</v>
       </c>
       <c r="J6">
-        <v>0.3624850241194499</v>
+        <v>0.07759125567219005</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.79529511732927</v>
+        <v>3.820091</v>
       </c>
       <c r="N6">
-        <v>3.79529511732927</v>
+        <v>11.460273</v>
       </c>
       <c r="O6">
-        <v>0.016142782177357</v>
+        <v>0.01438273656706242</v>
       </c>
       <c r="P6">
-        <v>0.016142782177357</v>
+        <v>0.01438273656706242</v>
       </c>
       <c r="Q6">
-        <v>19.79791903137205</v>
+        <v>5.470174213995334</v>
       </c>
       <c r="R6">
-        <v>19.79791903137205</v>
+        <v>49.231567925958</v>
       </c>
       <c r="S6">
-        <v>0.005851516786914277</v>
+        <v>0.001115974590240698</v>
       </c>
       <c r="T6">
-        <v>0.005851516786914277</v>
+        <v>0.001115974590240697</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>5.21643730443385</v>
+        <v>1.431948666666667</v>
       </c>
       <c r="H7">
-        <v>5.21643730443385</v>
+        <v>4.295846</v>
       </c>
       <c r="I7">
-        <v>0.3624850241194499</v>
+        <v>0.07759125567219005</v>
       </c>
       <c r="J7">
-        <v>0.3624850241194499</v>
+        <v>0.07759125567219005</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>28.0368057591466</v>
+        <v>31.35116233333333</v>
       </c>
       <c r="N7">
-        <v>28.0368057591466</v>
+        <v>94.053487</v>
       </c>
       <c r="O7">
-        <v>0.1192508182702952</v>
+        <v>0.1180378972415954</v>
       </c>
       <c r="P7">
-        <v>0.1192508182702952</v>
+        <v>0.1180378972415954</v>
       </c>
       <c r="Q7">
-        <v>146.2522394591781</v>
+        <v>44.8932551016669</v>
       </c>
       <c r="R7">
-        <v>146.2522394591781</v>
+        <v>404.039295915002</v>
       </c>
       <c r="S7">
-        <v>0.04322663573697211</v>
+        <v>0.009158708663880325</v>
       </c>
       <c r="T7">
-        <v>0.04322663573697211</v>
+        <v>0.009158708663880324</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.39667074056383</v>
+        <v>5.232468</v>
       </c>
       <c r="H8">
-        <v>1.39667074056383</v>
+        <v>15.697404</v>
       </c>
       <c r="I8">
-        <v>0.09705325637670185</v>
+        <v>0.2835253608145308</v>
       </c>
       <c r="J8">
-        <v>0.09705325637670185</v>
+        <v>0.2835253608145307</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>26.1737723042941</v>
+        <v>50.45577166666666</v>
       </c>
       <c r="N8">
-        <v>26.1737723042941</v>
+        <v>151.367315</v>
       </c>
       <c r="O8">
-        <v>0.1113266536609365</v>
+        <v>0.18996722124408</v>
       </c>
       <c r="P8">
-        <v>0.1113266536609365</v>
+        <v>0.1899672212440799</v>
       </c>
       <c r="Q8">
-        <v>36.5561419475875</v>
+        <v>264.00821066114</v>
       </c>
       <c r="R8">
-        <v>36.5561419475875</v>
+        <v>2376.07389595026</v>
       </c>
       <c r="S8">
-        <v>0.01080461425931516</v>
+        <v>0.05386052494616158</v>
       </c>
       <c r="T8">
-        <v>0.01080461425931516</v>
+        <v>0.05386052494616155</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.39667074056383</v>
+        <v>5.232468</v>
       </c>
       <c r="H9">
-        <v>1.39667074056383</v>
+        <v>15.697404</v>
       </c>
       <c r="I9">
-        <v>0.09705325637670185</v>
+        <v>0.2835253608145308</v>
       </c>
       <c r="J9">
-        <v>0.09705325637670185</v>
+        <v>0.2835253608145307</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>148.258515378317</v>
+        <v>149.2656146666667</v>
       </c>
       <c r="N9">
-        <v>148.258515378317</v>
+        <v>447.796844</v>
       </c>
       <c r="O9">
-        <v>0.6305978443580588</v>
+        <v>0.5619887102876124</v>
       </c>
       <c r="P9">
-        <v>0.6305978443580588</v>
+        <v>0.5619887102876123</v>
       </c>
       <c r="Q9">
-        <v>207.068330468328</v>
+        <v>781.027552243664</v>
       </c>
       <c r="R9">
-        <v>207.068330468328</v>
+        <v>7029.247970192976</v>
       </c>
       <c r="S9">
-        <v>0.06120157425907821</v>
+        <v>0.1593380518579881</v>
       </c>
       <c r="T9">
-        <v>0.06120157425907821</v>
+        <v>0.1593380518579881</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.39667074056383</v>
+        <v>5.232468</v>
       </c>
       <c r="H10">
-        <v>1.39667074056383</v>
+        <v>15.697404</v>
       </c>
       <c r="I10">
-        <v>0.09705325637670185</v>
+        <v>0.2835253608145308</v>
       </c>
       <c r="J10">
-        <v>0.09705325637670185</v>
+        <v>0.2835253608145307</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.7503247625346</v>
+        <v>13.28522433333333</v>
       </c>
       <c r="N10">
-        <v>11.7503247625346</v>
+        <v>39.855673</v>
       </c>
       <c r="O10">
-        <v>0.04997844101469479</v>
+        <v>0.05001919635439596</v>
       </c>
       <c r="P10">
-        <v>0.04997844101469479</v>
+        <v>0.05001919635439595</v>
       </c>
       <c r="Q10">
-        <v>16.41133478795471</v>
+        <v>69.514511196988</v>
       </c>
       <c r="R10">
-        <v>16.41133478795471</v>
+        <v>625.6306007728919</v>
       </c>
       <c r="S10">
-        <v>0.004850570449107045</v>
+        <v>0.01418171069403298</v>
       </c>
       <c r="T10">
-        <v>0.004850570449107045</v>
+        <v>0.01418171069403297</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.39667074056383</v>
+        <v>5.232468</v>
       </c>
       <c r="H11">
-        <v>1.39667074056383</v>
+        <v>15.697404</v>
       </c>
       <c r="I11">
-        <v>0.09705325637670185</v>
+        <v>0.2835253608145308</v>
       </c>
       <c r="J11">
-        <v>0.09705325637670185</v>
+        <v>0.2835253608145307</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>17.0931556709254</v>
+        <v>17.42465066666666</v>
       </c>
       <c r="N11">
-        <v>17.0931556709254</v>
+        <v>52.27395199999999</v>
       </c>
       <c r="O11">
-        <v>0.07270346051865775</v>
+        <v>0.06560423830525379</v>
       </c>
       <c r="P11">
-        <v>0.07270346051865775</v>
+        <v>0.06560423830525378</v>
       </c>
       <c r="Q11">
-        <v>23.87351038948421</v>
+        <v>91.17392702451198</v>
       </c>
       <c r="R11">
-        <v>23.87351038948421</v>
+        <v>820.5653432206078</v>
       </c>
       <c r="S11">
-        <v>0.007056107593190713</v>
+        <v>0.01860046533645954</v>
       </c>
       <c r="T11">
-        <v>0.007056107593190713</v>
+        <v>0.01860046533645953</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.39667074056383</v>
+        <v>5.232468</v>
       </c>
       <c r="H12">
-        <v>1.39667074056383</v>
+        <v>15.697404</v>
       </c>
       <c r="I12">
-        <v>0.09705325637670185</v>
+        <v>0.2835253608145308</v>
       </c>
       <c r="J12">
-        <v>0.09705325637670185</v>
+        <v>0.2835253608145307</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.79529511732927</v>
+        <v>3.820091</v>
       </c>
       <c r="N12">
-        <v>3.79529511732927</v>
+        <v>11.460273</v>
       </c>
       <c r="O12">
-        <v>0.016142782177357</v>
+        <v>0.01438273656706242</v>
       </c>
       <c r="P12">
-        <v>0.016142782177357</v>
+        <v>0.01438273656706242</v>
       </c>
       <c r="Q12">
-        <v>5.300777642178559</v>
+        <v>19.988503914588</v>
       </c>
       <c r="R12">
-        <v>5.300777642178559</v>
+        <v>179.896535231292</v>
       </c>
       <c r="S12">
-        <v>0.001566709577292282</v>
+        <v>0.004077870574676719</v>
       </c>
       <c r="T12">
-        <v>0.001566709577292282</v>
+        <v>0.004077870574676718</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.39667074056383</v>
+        <v>5.232468</v>
       </c>
       <c r="H13">
-        <v>1.39667074056383</v>
+        <v>15.697404</v>
       </c>
       <c r="I13">
-        <v>0.09705325637670185</v>
+        <v>0.2835253608145308</v>
       </c>
       <c r="J13">
-        <v>0.09705325637670185</v>
+        <v>0.2835253608145307</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>28.0368057591466</v>
+        <v>31.35116233333333</v>
       </c>
       <c r="N13">
-        <v>28.0368057591466</v>
+        <v>94.053487</v>
       </c>
       <c r="O13">
-        <v>0.1192508182702952</v>
+        <v>0.1180378972415954</v>
       </c>
       <c r="P13">
-        <v>0.1192508182702952</v>
+        <v>0.1180378972415954</v>
       </c>
       <c r="Q13">
-        <v>39.15818626267153</v>
+        <v>164.043953671972</v>
       </c>
       <c r="R13">
-        <v>39.15818626267153</v>
+        <v>1476.395583047748</v>
       </c>
       <c r="S13">
-        <v>0.01157368023871845</v>
+        <v>0.03346673740521184</v>
       </c>
       <c r="T13">
-        <v>0.01157368023871845</v>
+        <v>0.03346673740521183</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.2064799986053</v>
+        <v>1.834573333333333</v>
       </c>
       <c r="H14">
-        <v>2.2064799986053</v>
+        <v>5.50372</v>
       </c>
       <c r="I14">
-        <v>0.1533260938138183</v>
+        <v>0.0994077873527463</v>
       </c>
       <c r="J14">
-        <v>0.1533260938138183</v>
+        <v>0.09940778735274629</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>26.1737723042941</v>
+        <v>50.45577166666666</v>
       </c>
       <c r="N14">
-        <v>26.1737723042941</v>
+        <v>151.367315</v>
       </c>
       <c r="O14">
-        <v>0.1113266536609365</v>
+        <v>0.18996722124408</v>
       </c>
       <c r="P14">
-        <v>0.1113266536609365</v>
+        <v>0.1899672212440799</v>
       </c>
       <c r="Q14">
-        <v>57.75190507747429</v>
+        <v>92.56481321242221</v>
       </c>
       <c r="R14">
-        <v>57.75190507747429</v>
+        <v>833.0833189117999</v>
       </c>
       <c r="S14">
-        <v>0.01706928094319521</v>
+        <v>0.01888422113342362</v>
       </c>
       <c r="T14">
-        <v>0.01706928094319521</v>
+        <v>0.01888422113342361</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.2064799986053</v>
+        <v>1.834573333333333</v>
       </c>
       <c r="H15">
-        <v>2.2064799986053</v>
+        <v>5.50372</v>
       </c>
       <c r="I15">
-        <v>0.1533260938138183</v>
+        <v>0.0994077873527463</v>
       </c>
       <c r="J15">
-        <v>0.1533260938138183</v>
+        <v>0.09940778735274629</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>148.258515378317</v>
+        <v>149.2656146666667</v>
       </c>
       <c r="N15">
-        <v>148.258515378317</v>
+        <v>447.796844</v>
       </c>
       <c r="O15">
-        <v>0.6305978443580588</v>
+        <v>0.5619887102876124</v>
       </c>
       <c r="P15">
-        <v>0.6305978443580588</v>
+        <v>0.5619887102876123</v>
       </c>
       <c r="Q15">
-        <v>327.1294488051728</v>
+        <v>273.8387162510755</v>
       </c>
       <c r="R15">
-        <v>327.1294488051728</v>
+        <v>2464.54844625968</v>
       </c>
       <c r="S15">
-        <v>0.09668710424283533</v>
+        <v>0.05586605420691512</v>
       </c>
       <c r="T15">
-        <v>0.09668710424283533</v>
+        <v>0.05586605420691511</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.2064799986053</v>
+        <v>1.834573333333333</v>
       </c>
       <c r="H16">
-        <v>2.2064799986053</v>
+        <v>5.50372</v>
       </c>
       <c r="I16">
-        <v>0.1533260938138183</v>
+        <v>0.0994077873527463</v>
       </c>
       <c r="J16">
-        <v>0.1533260938138183</v>
+        <v>0.09940778735274629</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>11.7503247625346</v>
+        <v>13.28522433333333</v>
       </c>
       <c r="N16">
-        <v>11.7503247625346</v>
+        <v>39.855673</v>
       </c>
       <c r="O16">
-        <v>0.04997844101469479</v>
+        <v>0.05001919635439596</v>
       </c>
       <c r="P16">
-        <v>0.04997844101469479</v>
+        <v>0.05001919635439595</v>
       </c>
       <c r="Q16">
-        <v>25.92685656564917</v>
+        <v>24.37271828928444</v>
       </c>
       <c r="R16">
-        <v>25.92685656564917</v>
+        <v>219.35446460356</v>
       </c>
       <c r="S16">
-        <v>0.007662999135687481</v>
+        <v>0.004972297634753056</v>
       </c>
       <c r="T16">
-        <v>0.007662999135687481</v>
+        <v>0.004972297634753055</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.2064799986053</v>
+        <v>1.834573333333333</v>
       </c>
       <c r="H17">
-        <v>2.2064799986053</v>
+        <v>5.50372</v>
       </c>
       <c r="I17">
-        <v>0.1533260938138183</v>
+        <v>0.0994077873527463</v>
       </c>
       <c r="J17">
-        <v>0.1533260938138183</v>
+        <v>0.09940778735274629</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>17.0931556709254</v>
+        <v>17.42465066666666</v>
       </c>
       <c r="N17">
-        <v>17.0931556709254</v>
+        <v>52.27395199999999</v>
       </c>
       <c r="O17">
-        <v>0.07270346051865775</v>
+        <v>0.06560423830525379</v>
       </c>
       <c r="P17">
-        <v>0.07270346051865775</v>
+        <v>0.06560423830525378</v>
       </c>
       <c r="Q17">
-        <v>37.71570610094365</v>
+        <v>31.96679945571555</v>
       </c>
       <c r="R17">
-        <v>37.71570610094365</v>
+        <v>287.70119510144</v>
       </c>
       <c r="S17">
-        <v>0.01114733760807296</v>
+        <v>0.006521572170887563</v>
       </c>
       <c r="T17">
-        <v>0.01114733760807296</v>
+        <v>0.00652157217088756</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.2064799986053</v>
+        <v>1.834573333333333</v>
       </c>
       <c r="H18">
-        <v>2.2064799986053</v>
+        <v>5.50372</v>
       </c>
       <c r="I18">
-        <v>0.1533260938138183</v>
+        <v>0.0994077873527463</v>
       </c>
       <c r="J18">
-        <v>0.1533260938138183</v>
+        <v>0.09940778735274629</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.79529511732927</v>
+        <v>3.820091</v>
       </c>
       <c r="N18">
-        <v>3.79529511732927</v>
+        <v>11.460273</v>
       </c>
       <c r="O18">
-        <v>0.016142782177357</v>
+        <v>0.01438273656706242</v>
       </c>
       <c r="P18">
-        <v>0.016142782177357</v>
+        <v>0.01438273656706242</v>
       </c>
       <c r="Q18">
-        <v>8.37424276519139</v>
+        <v>7.008237079506666</v>
       </c>
       <c r="R18">
-        <v>8.37424276519139</v>
+        <v>63.07413371556</v>
       </c>
       <c r="S18">
-        <v>0.002475109734541473</v>
+        <v>0.00142975601820911</v>
       </c>
       <c r="T18">
-        <v>0.002475109734541473</v>
+        <v>0.001429756018209109</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.2064799986053</v>
+        <v>1.834573333333333</v>
       </c>
       <c r="H19">
-        <v>2.2064799986053</v>
+        <v>5.50372</v>
       </c>
       <c r="I19">
-        <v>0.1533260938138183</v>
+        <v>0.0994077873527463</v>
       </c>
       <c r="J19">
-        <v>0.1533260938138183</v>
+        <v>0.09940778735274629</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>28.0368057591466</v>
+        <v>31.35116233333333</v>
       </c>
       <c r="N19">
-        <v>28.0368057591466</v>
+        <v>94.053487</v>
       </c>
       <c r="O19">
-        <v>0.1192508182702952</v>
+        <v>0.1180378972415954</v>
       </c>
       <c r="P19">
-        <v>0.1192508182702952</v>
+        <v>0.1180378972415954</v>
       </c>
       <c r="Q19">
-        <v>61.86265113233885</v>
+        <v>57.51600638573778</v>
       </c>
       <c r="R19">
-        <v>61.86265113233885</v>
+        <v>517.6440574716399</v>
       </c>
       <c r="S19">
-        <v>0.01828426214948589</v>
+        <v>0.01173388618855783</v>
       </c>
       <c r="T19">
-        <v>0.01828426214948589</v>
+        <v>0.01173388618855783</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.57117835317614</v>
+        <v>2.375843333333334</v>
       </c>
       <c r="H20">
-        <v>5.57117835317614</v>
+        <v>7.12753</v>
       </c>
       <c r="I20">
-        <v>0.3871356256900297</v>
+        <v>0.1287369245874281</v>
       </c>
       <c r="J20">
-        <v>0.3871356256900297</v>
+        <v>0.1287369245874281</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>26.1737723042941</v>
+        <v>50.45577166666666</v>
       </c>
       <c r="N20">
-        <v>26.1737723042941</v>
+        <v>151.367315</v>
       </c>
       <c r="O20">
-        <v>0.1113266536609365</v>
+        <v>0.18996722124408</v>
       </c>
       <c r="P20">
-        <v>0.1113266536609365</v>
+        <v>0.1899672212440799</v>
       </c>
       <c r="Q20">
-        <v>145.8187536826445</v>
+        <v>119.8750087424389</v>
       </c>
       <c r="R20">
-        <v>145.8187536826445</v>
+        <v>1078.87507868195</v>
       </c>
       <c r="S20">
-        <v>0.04309851372100388</v>
+        <v>0.0244557958353824</v>
       </c>
       <c r="T20">
-        <v>0.04309851372100388</v>
+        <v>0.02445579583538239</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.57117835317614</v>
+        <v>2.375843333333334</v>
       </c>
       <c r="H21">
-        <v>5.57117835317614</v>
+        <v>7.12753</v>
       </c>
       <c r="I21">
-        <v>0.3871356256900297</v>
+        <v>0.1287369245874281</v>
       </c>
       <c r="J21">
-        <v>0.3871356256900297</v>
+        <v>0.1287369245874281</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>148.258515378317</v>
+        <v>149.2656146666667</v>
       </c>
       <c r="N21">
-        <v>148.258515378317</v>
+        <v>447.796844</v>
       </c>
       <c r="O21">
-        <v>0.6305978443580588</v>
+        <v>0.5619887102876124</v>
       </c>
       <c r="P21">
-        <v>0.6305978443580588</v>
+        <v>0.5619887102876123</v>
       </c>
       <c r="Q21">
-        <v>825.9746315497116</v>
+        <v>354.6317155017023</v>
       </c>
       <c r="R21">
-        <v>825.9746315497116</v>
+        <v>3191.68543951532</v>
       </c>
       <c r="S21">
-        <v>0.2441268910343411</v>
+        <v>0.07234869821528236</v>
       </c>
       <c r="T21">
-        <v>0.2441268910343411</v>
+        <v>0.07234869821528234</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.57117835317614</v>
+        <v>2.375843333333334</v>
       </c>
       <c r="H22">
-        <v>5.57117835317614</v>
+        <v>7.12753</v>
       </c>
       <c r="I22">
-        <v>0.3871356256900297</v>
+        <v>0.1287369245874281</v>
       </c>
       <c r="J22">
-        <v>0.3871356256900297</v>
+        <v>0.1287369245874281</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>11.7503247625346</v>
+        <v>13.28522433333333</v>
       </c>
       <c r="N22">
-        <v>11.7503247625346</v>
+        <v>39.855673</v>
       </c>
       <c r="O22">
-        <v>0.04997844101469479</v>
+        <v>0.05001919635439596</v>
       </c>
       <c r="P22">
-        <v>0.04997844101469479</v>
+        <v>0.05001919635439595</v>
       </c>
       <c r="Q22">
-        <v>65.46315495982233</v>
+        <v>31.56361166418778</v>
       </c>
       <c r="R22">
-        <v>65.46315495982233</v>
+        <v>284.07250497769</v>
       </c>
       <c r="S22">
-        <v>0.01934843503323611</v>
+        <v>0.006439317508999633</v>
       </c>
       <c r="T22">
-        <v>0.01934843503323611</v>
+        <v>0.006439317508999631</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.57117835317614</v>
+        <v>2.375843333333334</v>
       </c>
       <c r="H23">
-        <v>5.57117835317614</v>
+        <v>7.12753</v>
       </c>
       <c r="I23">
-        <v>0.3871356256900297</v>
+        <v>0.1287369245874281</v>
       </c>
       <c r="J23">
-        <v>0.3871356256900297</v>
+        <v>0.1287369245874281</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>17.0931556709254</v>
+        <v>17.42465066666666</v>
       </c>
       <c r="N23">
-        <v>17.0931556709254</v>
+        <v>52.27395199999999</v>
       </c>
       <c r="O23">
-        <v>0.07270346051865775</v>
+        <v>0.06560423830525379</v>
       </c>
       <c r="P23">
-        <v>0.07270346051865775</v>
+        <v>0.06560423830525378</v>
       </c>
       <c r="Q23">
-        <v>95.22901886132955</v>
+        <v>41.39824012206222</v>
       </c>
       <c r="R23">
-        <v>95.22901886132955</v>
+        <v>372.5841610985599</v>
       </c>
       <c r="S23">
-        <v>0.02814609967772094</v>
+        <v>0.008445687879319121</v>
       </c>
       <c r="T23">
-        <v>0.02814609967772094</v>
+        <v>0.008445687879319118</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>27</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.57117835317614</v>
+        <v>2.375843333333334</v>
       </c>
       <c r="H24">
-        <v>5.57117835317614</v>
+        <v>7.12753</v>
       </c>
       <c r="I24">
-        <v>0.3871356256900297</v>
+        <v>0.1287369245874281</v>
       </c>
       <c r="J24">
-        <v>0.3871356256900297</v>
+        <v>0.1287369245874281</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.79529511732927</v>
+        <v>3.820091</v>
       </c>
       <c r="N24">
-        <v>3.79529511732927</v>
+        <v>11.460273</v>
       </c>
       <c r="O24">
-        <v>0.016142782177357</v>
+        <v>0.01438273656706242</v>
       </c>
       <c r="P24">
-        <v>0.016142782177357</v>
+        <v>0.01438273656706242</v>
       </c>
       <c r="Q24">
-        <v>21.14426600157993</v>
+        <v>9.075937735076668</v>
       </c>
       <c r="R24">
-        <v>21.14426600157993</v>
+        <v>81.68343961569001</v>
       </c>
       <c r="S24">
-        <v>0.006249446078608961</v>
+        <v>0.00185158927279476</v>
       </c>
       <c r="T24">
-        <v>0.006249446078608961</v>
+        <v>0.001851589272794759</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2.375843333333334</v>
+      </c>
+      <c r="H25">
+        <v>7.12753</v>
+      </c>
+      <c r="I25">
+        <v>0.1287369245874281</v>
+      </c>
+      <c r="J25">
+        <v>0.1287369245874281</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>31.35116233333333</v>
+      </c>
+      <c r="N25">
+        <v>94.053487</v>
+      </c>
+      <c r="O25">
+        <v>0.1180378972415954</v>
+      </c>
+      <c r="P25">
+        <v>0.1180378972415954</v>
+      </c>
+      <c r="Q25">
+        <v>74.48545002190112</v>
+      </c>
+      <c r="R25">
+        <v>670.36905019711</v>
+      </c>
+      <c r="S25">
+        <v>0.01519583587564986</v>
+      </c>
+      <c r="T25">
+        <v>0.01519583587564985</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>1.326571</v>
+      </c>
+      <c r="H26">
+        <v>3.979713</v>
+      </c>
+      <c r="I26">
+        <v>0.07188128459096031</v>
+      </c>
+      <c r="J26">
+        <v>0.07188128459096031</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>50.45577166666666</v>
+      </c>
+      <c r="N26">
+        <v>151.367315</v>
+      </c>
+      <c r="O26">
+        <v>0.18996722124408</v>
+      </c>
+      <c r="P26">
+        <v>0.1899672212440799</v>
+      </c>
+      <c r="Q26">
+        <v>66.93316347562167</v>
+      </c>
+      <c r="R26">
+        <v>602.398471280595</v>
+      </c>
+      <c r="S26">
+        <v>0.01365508789319964</v>
+      </c>
+      <c r="T26">
+        <v>0.01365508789319963</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G27">
+        <v>1.326571</v>
+      </c>
+      <c r="H27">
+        <v>3.979713</v>
+      </c>
+      <c r="I27">
+        <v>0.07188128459096031</v>
+      </c>
+      <c r="J27">
+        <v>0.07188128459096031</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>149.2656146666667</v>
+      </c>
+      <c r="N27">
+        <v>447.796844</v>
+      </c>
+      <c r="O27">
+        <v>0.5619887102876124</v>
+      </c>
+      <c r="P27">
+        <v>0.5619887102876123</v>
+      </c>
+      <c r="Q27">
+        <v>198.0114357139747</v>
+      </c>
+      <c r="R27">
+        <v>1782.102921425772</v>
+      </c>
+      <c r="S27">
+        <v>0.04039647042109062</v>
+      </c>
+      <c r="T27">
+        <v>0.0403964704210906</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G28">
+        <v>1.326571</v>
+      </c>
+      <c r="H28">
+        <v>3.979713</v>
+      </c>
+      <c r="I28">
+        <v>0.07188128459096031</v>
+      </c>
+      <c r="J28">
+        <v>0.07188128459096031</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>13.28522433333333</v>
+      </c>
+      <c r="N28">
+        <v>39.855673</v>
+      </c>
+      <c r="O28">
+        <v>0.05001919635439596</v>
+      </c>
+      <c r="P28">
+        <v>0.05001919635439595</v>
+      </c>
+      <c r="Q28">
+        <v>17.62379332909433</v>
+      </c>
+      <c r="R28">
+        <v>158.614139961849</v>
+      </c>
+      <c r="S28">
+        <v>0.00359544408816146</v>
+      </c>
+      <c r="T28">
+        <v>0.00359544408816146</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G29">
+        <v>1.326571</v>
+      </c>
+      <c r="H29">
+        <v>3.979713</v>
+      </c>
+      <c r="I29">
+        <v>0.07188128459096031</v>
+      </c>
+      <c r="J29">
+        <v>0.07188128459096031</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>17.42465066666666</v>
+      </c>
+      <c r="N29">
+        <v>52.27395199999999</v>
+      </c>
+      <c r="O29">
+        <v>0.06560423830525379</v>
+      </c>
+      <c r="P29">
+        <v>0.06560423830525378</v>
+      </c>
+      <c r="Q29">
+        <v>23.11503625953067</v>
+      </c>
+      <c r="R29">
+        <v>208.035326335776</v>
+      </c>
+      <c r="S29">
+        <v>0.004715716923993128</v>
+      </c>
+      <c r="T29">
+        <v>0.004715716923993127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G30">
+        <v>1.326571</v>
+      </c>
+      <c r="H30">
+        <v>3.979713</v>
+      </c>
+      <c r="I30">
+        <v>0.07188128459096031</v>
+      </c>
+      <c r="J30">
+        <v>0.07188128459096031</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>3.820091</v>
+      </c>
+      <c r="N30">
+        <v>11.460273</v>
+      </c>
+      <c r="O30">
+        <v>0.01438273656706242</v>
+      </c>
+      <c r="P30">
+        <v>0.01438273656706242</v>
+      </c>
+      <c r="Q30">
+        <v>5.067621937961001</v>
+      </c>
+      <c r="R30">
+        <v>45.608597441649</v>
+      </c>
+      <c r="S30">
+        <v>0.001033849580373825</v>
+      </c>
+      <c r="T30">
+        <v>0.001033849580373825</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G31">
+        <v>1.326571</v>
+      </c>
+      <c r="H31">
+        <v>3.979713</v>
+      </c>
+      <c r="I31">
+        <v>0.07188128459096031</v>
+      </c>
+      <c r="J31">
+        <v>0.07188128459096031</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>31.35116233333333</v>
+      </c>
+      <c r="N31">
+        <v>94.053487</v>
+      </c>
+      <c r="O31">
+        <v>0.1180378972415954</v>
+      </c>
+      <c r="P31">
+        <v>0.1180378972415954</v>
+      </c>
+      <c r="Q31">
+        <v>41.58954276769234</v>
+      </c>
+      <c r="R31">
+        <v>374.3058849092311</v>
+      </c>
+      <c r="S31">
+        <v>0.008484715684141648</v>
+      </c>
+      <c r="T31">
+        <v>0.008484715684141646</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>6.253622</v>
+      </c>
+      <c r="H32">
+        <v>18.760866</v>
+      </c>
+      <c r="I32">
+        <v>0.3388573869821445</v>
+      </c>
+      <c r="J32">
+        <v>0.3388573869821445</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>50.45577166666666</v>
+      </c>
+      <c r="N32">
+        <v>151.367315</v>
+      </c>
+      <c r="O32">
+        <v>0.18996722124408</v>
+      </c>
+      <c r="P32">
+        <v>0.1899672212440799</v>
+      </c>
+      <c r="Q32">
+        <v>315.5313237216433</v>
+      </c>
+      <c r="R32">
+        <v>2839.78191349479</v>
+      </c>
+      <c r="S32">
+        <v>0.06437179620302787</v>
+      </c>
+      <c r="T32">
+        <v>0.06437179620302785</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>6.253622</v>
+      </c>
+      <c r="H33">
+        <v>18.760866</v>
+      </c>
+      <c r="I33">
+        <v>0.3388573869821445</v>
+      </c>
+      <c r="J33">
+        <v>0.3388573869821445</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>149.2656146666667</v>
+      </c>
+      <c r="N33">
+        <v>447.796844</v>
+      </c>
+      <c r="O33">
+        <v>0.5619887102876124</v>
+      </c>
+      <c r="P33">
+        <v>0.5619887102876123</v>
+      </c>
+      <c r="Q33">
+        <v>933.4507317229893</v>
+      </c>
+      <c r="R33">
+        <v>8401.056585506905</v>
+      </c>
+      <c r="S33">
+        <v>0.1904340258815257</v>
+      </c>
+      <c r="T33">
+        <v>0.1904340258815257</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>6.253622</v>
+      </c>
+      <c r="H34">
+        <v>18.760866</v>
+      </c>
+      <c r="I34">
+        <v>0.3388573869821445</v>
+      </c>
+      <c r="J34">
+        <v>0.3388573869821445</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>13.28522433333333</v>
+      </c>
+      <c r="N34">
+        <v>39.855673</v>
+      </c>
+      <c r="O34">
+        <v>0.05001919635439596</v>
+      </c>
+      <c r="P34">
+        <v>0.05001919635439595</v>
+      </c>
+      <c r="Q34">
+        <v>83.08077116586865</v>
+      </c>
+      <c r="R34">
+        <v>747.7269404928179</v>
+      </c>
+      <c r="S34">
+        <v>0.01694937417559742</v>
+      </c>
+      <c r="T34">
+        <v>0.01694937417559742</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>5.57117835317614</v>
-      </c>
-      <c r="H25">
-        <v>5.57117835317614</v>
-      </c>
-      <c r="I25">
-        <v>0.3871356256900297</v>
-      </c>
-      <c r="J25">
-        <v>0.3871356256900297</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>28.0368057591466</v>
-      </c>
-      <c r="N25">
-        <v>28.0368057591466</v>
-      </c>
-      <c r="O25">
-        <v>0.1192508182702952</v>
-      </c>
-      <c r="P25">
-        <v>0.1192508182702952</v>
-      </c>
-      <c r="Q25">
-        <v>156.1980453375617</v>
-      </c>
-      <c r="R25">
-        <v>156.1980453375617</v>
-      </c>
-      <c r="S25">
-        <v>0.04616624014511878</v>
-      </c>
-      <c r="T25">
-        <v>0.04616624014511878</v>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>6.253622</v>
+      </c>
+      <c r="H35">
+        <v>18.760866</v>
+      </c>
+      <c r="I35">
+        <v>0.3388573869821445</v>
+      </c>
+      <c r="J35">
+        <v>0.3388573869821445</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>17.42465066666666</v>
+      </c>
+      <c r="N35">
+        <v>52.27395199999999</v>
+      </c>
+      <c r="O35">
+        <v>0.06560423830525379</v>
+      </c>
+      <c r="P35">
+        <v>0.06560423830525378</v>
+      </c>
+      <c r="Q35">
+        <v>108.9671787513813</v>
+      </c>
+      <c r="R35">
+        <v>980.7046087624319</v>
+      </c>
+      <c r="S35">
+        <v>0.02223048076707221</v>
+      </c>
+      <c r="T35">
+        <v>0.0222304807670722</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>6.253622</v>
+      </c>
+      <c r="H36">
+        <v>18.760866</v>
+      </c>
+      <c r="I36">
+        <v>0.3388573869821445</v>
+      </c>
+      <c r="J36">
+        <v>0.3388573869821445</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>3.820091</v>
+      </c>
+      <c r="N36">
+        <v>11.460273</v>
+      </c>
+      <c r="O36">
+        <v>0.01438273656706242</v>
+      </c>
+      <c r="P36">
+        <v>0.01438273656706242</v>
+      </c>
+      <c r="Q36">
+        <v>23.889405119602</v>
+      </c>
+      <c r="R36">
+        <v>215.004646076418</v>
+      </c>
+      <c r="S36">
+        <v>0.004873696530767311</v>
+      </c>
+      <c r="T36">
+        <v>0.004873696530767311</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>6.253622</v>
+      </c>
+      <c r="H37">
+        <v>18.760866</v>
+      </c>
+      <c r="I37">
+        <v>0.3388573869821445</v>
+      </c>
+      <c r="J37">
+        <v>0.3388573869821445</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>31.35116233333333</v>
+      </c>
+      <c r="N37">
+        <v>94.053487</v>
+      </c>
+      <c r="O37">
+        <v>0.1180378972415954</v>
+      </c>
+      <c r="P37">
+        <v>0.1180378972415954</v>
+      </c>
+      <c r="Q37">
+        <v>196.0583184933047</v>
+      </c>
+      <c r="R37">
+        <v>1764.524866439742</v>
+      </c>
+      <c r="S37">
+        <v>0.03999801342415389</v>
+      </c>
+      <c r="T37">
+        <v>0.03999801342415389</v>
       </c>
     </row>
   </sheetData>
